--- a/statistics_and_data_analysis/linear_regression.xlsx
+++ b/statistics_and_data_analysis/linear_regression.xlsx
@@ -739,7 +739,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -765,7 +765,7 @@
                 </a:solidFill>
                 <a:latin typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>Y_i dependency on X_i</a:t>
+              <a:t>Y_i dependency on X_i with predictions and confidence intervals</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -774,8 +774,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.472517335708378"/>
-          <c:y val="0.0257104194857916"/>
+          <c:x val="0.321309285237141"/>
+          <c:y val="0.0407058568799394"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -793,10 +793,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0788854252815065"/>
-          <c:y val="0.139539918809202"/>
-          <c:w val="0.867135313951269"/>
-          <c:h val="0.744194857916103"/>
+          <c:x val="0.0788879345993575"/>
+          <c:y val="0.139547472122984"/>
+          <c:w val="0.867099277920921"/>
+          <c:h val="0.744181011150807"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1737,11 +1737,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47311500"/>
-        <c:axId val="25634996"/>
+        <c:axId val="46049116"/>
+        <c:axId val="21887853"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47311500"/>
+        <c:axId val="46049116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,12 +1781,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25634996"/>
+        <c:crossAx val="21887853"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25634996"/>
+        <c:axId val="21887853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +1826,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47311500"/>
+        <c:crossAx val="46049116"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1854,7 +1854,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2060,11 +2060,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19287577"/>
-        <c:axId val="82759382"/>
+        <c:axId val="94915536"/>
+        <c:axId val="55927030"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19287577"/>
+        <c:axId val="94915536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,12 +2120,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82759382"/>
+        <c:crossAx val="55927030"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82759382"/>
+        <c:axId val="55927030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,7 +2190,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19287577"/>
+        <c:crossAx val="94915536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2217,7 +2217,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2588,11 +2588,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18130862"/>
-        <c:axId val="40231406"/>
+        <c:axId val="24269356"/>
+        <c:axId val="96521967"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18130862"/>
+        <c:axId val="24269356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,12 +2648,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40231406"/>
+        <c:crossAx val="96521967"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40231406"/>
+        <c:axId val="96521967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,7 +2718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18130862"/>
+        <c:crossAx val="24269356"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2745,7 +2745,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3925,11 +3925,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="88491735"/>
-        <c:axId val="84492429"/>
+        <c:axId val="45916243"/>
+        <c:axId val="4123191"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88491735"/>
+        <c:axId val="45916243"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,12 +3985,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84492429"/>
+        <c:crossAx val="4123191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84492429"/>
+        <c:axId val="4123191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4055,7 +4055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88491735"/>
+        <c:crossAx val="45916243"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4093,9 +4093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1095840</xdr:colOff>
+      <xdr:colOff>1095480</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4104,7 +4104,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7506360" y="6833880"/>
-        <a:ext cx="11317320" cy="6650640"/>
+        <a:ext cx="11316960" cy="6650280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4123,9 +4123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>195480</xdr:colOff>
+      <xdr:colOff>195120</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4134,7 +4134,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="952920" y="6743880"/>
-        <a:ext cx="5765400" cy="3237120"/>
+        <a:ext cx="5765040" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4153,9 +4153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187200</xdr:colOff>
+      <xdr:colOff>186840</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4164,7 +4164,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="944640" y="10239480"/>
-        <a:ext cx="5765400" cy="3237120"/>
+        <a:ext cx="5765040" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4188,9 +4188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>728640</xdr:colOff>
+      <xdr:colOff>728280</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4199,7 +4199,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2251440" y="13439520"/>
-        <a:ext cx="10561320" cy="5883840"/>
+        <a:ext cx="10560960" cy="5883480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4219,8 +4219,8 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P32" activeCellId="0" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6274,7 +6274,7 @@
   </sheetPr>
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
